--- a/Dossier CP/Gantt.xlsx
+++ b/Dossier CP/Gantt.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holloww\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Holloww\Documents\GitHub\TPCamera\Dossier CP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -31,6 +31,131 @@
     <author>Holloww</author>
   </authors>
   <commentList>
+    <comment ref="H5" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mise en Place Trello
+Mietka
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I6" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Diagramme de cas d'utilisation
+Mietka</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K7" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Diagramme d'exigence et Gantt Previsionnel
+Mietka</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H8" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mise en Place GitHub
+Lempereur</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I9" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Mise en Place des machine virtuelle et du github</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="N10" authorId="0" shapeId="0">
       <text>
         <r>
@@ -52,7 +177,7 @@
           </rPr>
           <t xml:space="preserve">
 Cahier des Charges
-Holloww/Mathieu
+Mietka
 </t>
         </r>
       </text>
@@ -77,7 +202,163 @@
             <family val="2"/>
           </rPr>
           <t xml:space="preserve">
-IHM WEB JULES/Cosman
+IHM C++
+Cosman
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Test Préliminaire
+Lempereur
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Test Préliminaire
+Lempereur
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J12" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Connexion PHP 
+Blanc</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N13" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Création classe Objet
+Blanc/Cosman
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O14" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Base de Donnée
+Lempereur
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P15" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Holloww:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Test Préliminaire
+Lempereur
 </t>
         </r>
       </text>
@@ -87,7 +368,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="66">
   <si>
     <t xml:space="preserve"># tache </t>
   </si>
@@ -147,9 +428,6 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
-  </si>
-  <si>
-    <t>Diagramme d'éxigences et Gantt</t>
   </si>
   <si>
     <t>Test</t>
@@ -220,35 +498,6 @@
   <si>
     <r>
       <t>Mr COSMAN</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="2" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="7" tint="-0.249977111117893"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>BLANC</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Mr COSMAN </t>
     </r>
     <r>
       <rPr>
@@ -316,6 +565,77 @@
     </r>
   </si>
   <si>
+    <t>Schéma de déploiement</t>
+  </si>
+  <si>
+    <t>Connexion Deconnexion à la Caméra</t>
+  </si>
+  <si>
+    <t>VENDREDI15 Novembre 2019</t>
+  </si>
+  <si>
+    <t>VENDREDI22 Novembre 2019</t>
+  </si>
+  <si>
+    <t>VENDREDI 29 Novembre 2019</t>
+  </si>
+  <si>
+    <t>VENDREDI 6 Decembre 2019</t>
+  </si>
+  <si>
+    <t>VENDREDI 13 Decembre 2019</t>
+  </si>
+  <si>
+    <t>Test préliminaire</t>
+  </si>
+  <si>
+    <t>Base de données</t>
+  </si>
+  <si>
+    <t>MCD</t>
+  </si>
+  <si>
+    <t>Diagramme de Séquence</t>
+  </si>
+  <si>
+    <t>Diagramme d'éxigences et Gantt prévisionnel</t>
+  </si>
+  <si>
+    <t>Documentation technique</t>
+  </si>
+  <si>
+    <r>
+      <t>Mr MIETKA V./</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mr COSMAN</t>
+    </r>
+  </si>
+  <si>
+    <t>Test Connexion avec Javascript</t>
+  </si>
+  <si>
+    <t>IHM c++</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mr COSMAN </t>
+  </si>
+  <si>
+    <t>BLANC</t>
+  </si>
+  <si>
+    <t>Cahier Test</t>
+  </si>
+  <si>
     <r>
       <t>Mr MIETKA</t>
     </r>
@@ -329,6 +649,32 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t/>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Mietka</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>/</t>
     </r>
     <r>
@@ -336,50 +682,82 @@
         <b/>
         <u/>
         <sz val="11"/>
-        <color theme="4"/>
+        <color theme="4" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>LEMPEREUR</t>
+      <t>Lempereur</t>
     </r>
   </si>
   <si>
-    <t>Schéma de déploiement</t>
-  </si>
-  <si>
-    <t>Connexion Deconnexion à la Caméra</t>
-  </si>
-  <si>
-    <t>Basse de données</t>
-  </si>
-  <si>
-    <t>IHMWeb</t>
-  </si>
-  <si>
-    <t>VENDREDI15 Novembre 2019</t>
-  </si>
-  <si>
-    <t>VENDREDI22 Novembre 2019</t>
-  </si>
-  <si>
-    <t>VENDREDI 29 Novembre 2019</t>
-  </si>
-  <si>
-    <t>VENDREDI 6 Decembre 2019</t>
-  </si>
-  <si>
-    <t>VENDREDI 13 Decembre 2019</t>
-  </si>
-  <si>
-    <t>Test préliminaire</t>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="7" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/M/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF92D050"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>C</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="12"/>
+        <color theme="4" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>L</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="24" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -482,8 +860,41 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="2" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.34998626667073579"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -492,13 +903,56 @@
       <b/>
       <u/>
       <sz val="11"/>
-      <color theme="2" tint="-0.249977111117893"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="7" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF92D050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="6" tint="0.39997558519241921"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -553,8 +1007,32 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="33">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -976,11 +1454,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="140">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -989,9 +1476,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1032,14 +1516,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -1054,19 +1530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -1088,36 +1552,19 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1126,6 +1573,55 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1136,33 +1632,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1178,82 +1656,153 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="17" fillId="10" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="23" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1525,7 +2074,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1560,7 +2109,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1745,10 +2294,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AT65"/>
+  <dimension ref="A2:AT62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="AE21" sqref="AE21"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M40" sqref="M40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,635 +2326,632 @@
     <row r="2" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="G3" s="1"/>
-      <c r="H3" s="66" t="s">
-        <v>51</v>
-      </c>
-      <c r="I3" s="67"/>
-      <c r="J3" s="67"/>
-      <c r="K3" s="67"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="66" t="s">
-        <v>52</v>
-      </c>
-      <c r="N3" s="67"/>
-      <c r="O3" s="67"/>
-      <c r="P3" s="68"/>
-      <c r="Q3" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="67"/>
-      <c r="S3" s="67"/>
-      <c r="T3" s="67"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="66" t="s">
-        <v>54</v>
-      </c>
-      <c r="W3" s="67"/>
-      <c r="X3" s="67"/>
-      <c r="Y3" s="67"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="66" t="s">
-        <v>55</v>
-      </c>
-      <c r="AB3" s="67"/>
-      <c r="AC3" s="67"/>
-      <c r="AD3" s="67"/>
-      <c r="AE3" s="68"/>
-    </row>
-    <row r="4" spans="2:31" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B4" s="15" t="s">
+      <c r="H3" s="69" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="70"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="69" t="s">
+        <v>47</v>
+      </c>
+      <c r="N3" s="70"/>
+      <c r="O3" s="70"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="69" t="s">
+        <v>48</v>
+      </c>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="71"/>
+      <c r="V3" s="69" t="s">
+        <v>49</v>
+      </c>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="71"/>
+      <c r="AA3" s="69" t="s">
+        <v>50</v>
+      </c>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="71"/>
+    </row>
+    <row r="4" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C4" s="16" t="s">
+      <c r="C4" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="29" t="s">
+      <c r="D4" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="30" t="s">
+      <c r="E4" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="F4" s="32"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="47" t="s">
+        <v>29</v>
+      </c>
+      <c r="I4" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4" s="48" t="s">
+        <v>27</v>
+      </c>
+      <c r="L4" s="48" t="s">
+        <v>28</v>
+      </c>
+      <c r="M4" s="49" t="s">
+        <v>32</v>
+      </c>
+      <c r="N4" s="49" t="s">
+        <v>27</v>
+      </c>
+      <c r="O4" s="48" t="s">
+        <v>33</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q4" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="R4" s="47" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" s="47" t="s">
+        <v>31</v>
+      </c>
+      <c r="T4" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="U4" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="V4" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="W4" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="X4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y4" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z4" s="64" t="s">
+        <v>28</v>
+      </c>
+      <c r="AA4" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB4" s="65" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC4" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="AD4" s="64" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE4" s="64" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B5" s="83">
+        <v>0</v>
+      </c>
+      <c r="C5" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="63" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="J4" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" s="64" t="s">
-        <v>28</v>
-      </c>
-      <c r="L4" s="64" t="s">
-        <v>29</v>
-      </c>
-      <c r="M4" s="65" t="s">
-        <v>33</v>
-      </c>
-      <c r="N4" s="65" t="s">
-        <v>28</v>
-      </c>
-      <c r="O4" s="65" t="s">
-        <v>34</v>
-      </c>
-      <c r="P4" s="65" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q4" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="R4" s="63" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" s="63" t="s">
-        <v>32</v>
-      </c>
-      <c r="T4" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="U4" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="V4" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="W4" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="X4" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="Y4" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="Z4" s="111" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="AB4" s="112" t="s">
-        <v>31</v>
-      </c>
-      <c r="AC4" s="112" t="s">
-        <v>32</v>
-      </c>
-      <c r="AD4" s="111" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE4" s="111" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B5" s="32">
-        <v>0</v>
-      </c>
-      <c r="C5" s="19" t="s">
+      <c r="D5" s="85"/>
+      <c r="E5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F5" s="41"/>
+      <c r="F5" s="32"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="34"/>
-      <c r="I5" s="35"/>
-      <c r="J5" s="36"/>
-      <c r="K5" s="36"/>
-      <c r="L5" s="37"/>
-      <c r="M5" s="49"/>
-      <c r="N5" s="36"/>
-      <c r="O5" s="36"/>
-      <c r="P5" s="37"/>
-      <c r="Q5" s="49"/>
-      <c r="R5" s="36"/>
-      <c r="S5" s="36"/>
-      <c r="T5" s="36"/>
-      <c r="U5" s="37"/>
-      <c r="V5" s="49"/>
-      <c r="W5" s="36"/>
-      <c r="X5" s="36"/>
-      <c r="Y5" s="36"/>
-      <c r="Z5" s="37"/>
-      <c r="AA5" s="49"/>
-      <c r="AB5" s="36"/>
-      <c r="AC5" s="36"/>
-      <c r="AD5" s="36"/>
-      <c r="AE5" s="37"/>
+      <c r="H5" s="26"/>
+      <c r="I5" s="130"/>
+      <c r="J5" s="130"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="38"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="28"/>
+      <c r="Q5" s="38"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="28"/>
+      <c r="V5" s="38"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="28"/>
+      <c r="AA5" s="38"/>
+      <c r="AB5" s="27"/>
+      <c r="AC5" s="27"/>
+      <c r="AD5" s="27"/>
+      <c r="AE5" s="28"/>
     </row>
     <row r="6" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B6" s="32">
+      <c r="B6" s="83">
         <f>B5+1</f>
         <v>1</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="86" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="10" t="s">
+      <c r="D6" s="87"/>
+      <c r="E6" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F6" s="32"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="38"/>
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="28"/>
+      <c r="Q6" s="38"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="28"/>
+      <c r="V6" s="38"/>
+      <c r="W6" s="27"/>
+      <c r="X6" s="27"/>
+      <c r="Y6" s="27"/>
+      <c r="Z6" s="28"/>
+      <c r="AA6" s="38"/>
+      <c r="AB6" s="27"/>
+      <c r="AC6" s="27"/>
+      <c r="AD6" s="27"/>
+      <c r="AE6" s="28"/>
+    </row>
+    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
+      <c r="B7" s="83">
+        <f t="shared" ref="B7:B25" si="0">B6+1</f>
+        <v>2</v>
+      </c>
+      <c r="C7" s="86" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="87"/>
+      <c r="E7" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="41"/>
-      <c r="G6" s="3"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="36"/>
-      <c r="L6" s="37"/>
-      <c r="M6" s="49"/>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
-      <c r="P6" s="37"/>
-      <c r="Q6" s="49"/>
-      <c r="R6" s="36"/>
-      <c r="S6" s="36"/>
-      <c r="T6" s="36"/>
-      <c r="U6" s="37"/>
-      <c r="V6" s="49"/>
-      <c r="W6" s="36"/>
-      <c r="X6" s="36"/>
-      <c r="Y6" s="36"/>
-      <c r="Z6" s="37"/>
-      <c r="AA6" s="49"/>
-      <c r="AB6" s="36"/>
-      <c r="AC6" s="36"/>
-      <c r="AD6" s="36"/>
-      <c r="AE6" s="37"/>
-    </row>
-    <row r="7" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B7" s="32">
-        <f t="shared" ref="B7:B21" si="0">B6+1</f>
-        <v>2</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4"/>
-      <c r="E7" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F7" s="41"/>
+      <c r="F7" s="32"/>
       <c r="G7" s="3"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="36"/>
-      <c r="K7" s="40"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="50"/>
-      <c r="N7" s="51"/>
-      <c r="O7" s="36"/>
-      <c r="P7" s="37"/>
-      <c r="Q7" s="49"/>
-      <c r="R7" s="36"/>
-      <c r="S7" s="36"/>
-      <c r="T7" s="36"/>
-      <c r="U7" s="37"/>
-      <c r="V7" s="49"/>
-      <c r="W7" s="36"/>
-      <c r="X7" s="36"/>
-      <c r="Y7" s="36"/>
-      <c r="Z7" s="37"/>
-      <c r="AA7" s="49"/>
-      <c r="AB7" s="36"/>
-      <c r="AC7" s="36"/>
-      <c r="AD7" s="36"/>
-      <c r="AE7" s="37"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="31"/>
+      <c r="O7" s="31"/>
+      <c r="P7" s="33"/>
+      <c r="Q7" s="34"/>
+      <c r="R7" s="34"/>
+      <c r="S7" s="34"/>
+      <c r="T7" s="34"/>
+      <c r="U7" s="34"/>
+      <c r="V7" s="38"/>
+      <c r="W7" s="27"/>
+      <c r="X7" s="27"/>
+      <c r="Y7" s="27"/>
+      <c r="Z7" s="28"/>
+      <c r="AA7" s="38"/>
+      <c r="AB7" s="27"/>
+      <c r="AC7" s="27"/>
+      <c r="AD7" s="27"/>
+      <c r="AE7" s="28"/>
     </row>
     <row r="8" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B8" s="32">
+      <c r="B8" s="83">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="86" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F8" s="41"/>
+      <c r="D8" s="88"/>
+      <c r="E8" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F8" s="32"/>
       <c r="G8" s="3"/>
-      <c r="H8" s="87"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="37"/>
-      <c r="M8" s="49"/>
-      <c r="N8" s="36"/>
-      <c r="O8" s="36"/>
-      <c r="P8" s="37"/>
-      <c r="Q8" s="49"/>
-      <c r="R8" s="36"/>
-      <c r="S8" s="36"/>
-      <c r="T8" s="36"/>
-      <c r="U8" s="37"/>
-      <c r="V8" s="49"/>
-      <c r="W8" s="36"/>
-      <c r="X8" s="36"/>
-      <c r="Y8" s="36"/>
-      <c r="Z8" s="37"/>
-      <c r="AA8" s="49"/>
-      <c r="AB8" s="36"/>
-      <c r="AC8" s="36"/>
-      <c r="AD8" s="36"/>
-      <c r="AE8" s="37"/>
+      <c r="H8" s="56"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="27"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="38"/>
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="28"/>
+      <c r="Q8" s="38"/>
+      <c r="R8" s="27"/>
+      <c r="S8" s="27"/>
+      <c r="T8" s="27"/>
+      <c r="U8" s="28"/>
+      <c r="V8" s="38"/>
+      <c r="W8" s="27"/>
+      <c r="X8" s="27"/>
+      <c r="Y8" s="27"/>
+      <c r="Z8" s="28"/>
+      <c r="AA8" s="38"/>
+      <c r="AB8" s="27"/>
+      <c r="AC8" s="27"/>
+      <c r="AD8" s="27"/>
+      <c r="AE8" s="28"/>
     </row>
     <row r="9" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B9" s="32">
+      <c r="B9" s="83">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="85"/>
-      <c r="E9" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F9" s="41"/>
+      <c r="D9" s="89"/>
+      <c r="E9" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F9" s="32"/>
       <c r="G9" s="3"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="88"/>
-      <c r="J9" s="88"/>
-      <c r="K9" s="88"/>
-      <c r="L9" s="89"/>
-      <c r="M9" s="92"/>
-      <c r="N9" s="36"/>
-      <c r="O9" s="36"/>
-      <c r="P9" s="37"/>
-      <c r="Q9" s="49"/>
-      <c r="R9" s="36"/>
-      <c r="S9" s="36"/>
-      <c r="T9" s="36"/>
-      <c r="U9" s="37"/>
-      <c r="V9" s="49"/>
-      <c r="W9" s="36"/>
-      <c r="X9" s="36"/>
-      <c r="Y9" s="36"/>
-      <c r="Z9" s="37"/>
-      <c r="AA9" s="49"/>
-      <c r="AB9" s="36"/>
-      <c r="AC9" s="36"/>
-      <c r="AD9" s="36"/>
-      <c r="AE9" s="37"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="80"/>
+      <c r="K9" s="80"/>
+      <c r="L9" s="81"/>
+      <c r="M9" s="57"/>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="28"/>
+      <c r="Q9" s="38"/>
+      <c r="R9" s="27"/>
+      <c r="S9" s="27"/>
+      <c r="T9" s="27"/>
+      <c r="U9" s="28"/>
+      <c r="V9" s="38"/>
+      <c r="W9" s="27"/>
+      <c r="X9" s="27"/>
+      <c r="Y9" s="27"/>
+      <c r="Z9" s="28"/>
+      <c r="AA9" s="38"/>
+      <c r="AB9" s="27"/>
+      <c r="AC9" s="27"/>
+      <c r="AD9" s="27"/>
+      <c r="AE9" s="28"/>
     </row>
     <row r="10" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B10" s="32">
+      <c r="B10" s="83">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="86" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="74"/>
-      <c r="E10" s="10" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="41"/>
+      <c r="D10" s="87"/>
+      <c r="E10" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="32"/>
       <c r="G10" s="3"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="37"/>
-      <c r="M10" s="49"/>
-      <c r="N10" s="52"/>
-      <c r="O10" s="43"/>
-      <c r="P10" s="37"/>
-      <c r="Q10" s="49"/>
-      <c r="R10" s="36"/>
-      <c r="S10" s="36"/>
-      <c r="T10" s="36"/>
-      <c r="U10" s="37"/>
-      <c r="V10" s="49"/>
-      <c r="W10" s="36"/>
-      <c r="X10" s="36"/>
-      <c r="Y10" s="36"/>
-      <c r="Z10" s="37"/>
-      <c r="AA10" s="49"/>
-      <c r="AB10" s="36"/>
-      <c r="AC10" s="36"/>
-      <c r="AD10" s="36"/>
-      <c r="AE10" s="37"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="32"/>
+      <c r="J10" s="27"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="38"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="34"/>
+      <c r="P10" s="28"/>
+      <c r="Q10" s="38"/>
+      <c r="R10" s="27"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="27"/>
+      <c r="U10" s="28"/>
+      <c r="V10" s="38"/>
+      <c r="W10" s="27"/>
+      <c r="X10" s="34"/>
+      <c r="Y10" s="34"/>
+      <c r="Z10" s="35"/>
+      <c r="AA10" s="38"/>
+      <c r="AB10" s="27"/>
+      <c r="AC10" s="27"/>
+      <c r="AD10" s="27"/>
+      <c r="AE10" s="28"/>
     </row>
     <row r="11" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="32">
+      <c r="B11" s="83">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="D11" s="74"/>
-      <c r="E11" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="41"/>
+      <c r="C11" s="86" t="s">
+        <v>59</v>
+      </c>
+      <c r="D11" s="102"/>
+      <c r="E11" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="32"/>
       <c r="G11" s="3"/>
-      <c r="H11" s="94"/>
-      <c r="I11" s="95"/>
-      <c r="J11" s="95"/>
-      <c r="K11" s="43"/>
-      <c r="L11" s="44"/>
-      <c r="M11" s="49"/>
-      <c r="N11" s="36"/>
-      <c r="O11" s="36"/>
-      <c r="P11" s="37"/>
-      <c r="Q11" s="49"/>
-      <c r="R11" s="36"/>
-      <c r="S11" s="36"/>
-      <c r="T11" s="36"/>
-      <c r="U11" s="37"/>
-      <c r="V11" s="49"/>
-      <c r="W11" s="36"/>
-      <c r="X11" s="36"/>
-      <c r="Y11" s="36"/>
-      <c r="Z11" s="37"/>
-      <c r="AA11" s="49"/>
-      <c r="AB11" s="36"/>
-      <c r="AC11" s="36"/>
-      <c r="AD11" s="36"/>
-      <c r="AE11" s="37"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="106"/>
+      <c r="J11" s="106"/>
+      <c r="K11" s="120"/>
+      <c r="L11" s="121"/>
+      <c r="M11" s="120"/>
+      <c r="N11" s="106"/>
+      <c r="O11" s="106"/>
+      <c r="P11" s="106"/>
+      <c r="Q11" s="105"/>
+      <c r="R11" s="106"/>
+      <c r="S11" s="106"/>
+      <c r="T11" s="112"/>
+      <c r="U11" s="112"/>
+      <c r="V11" s="131"/>
+      <c r="W11" s="120"/>
+      <c r="X11" s="34"/>
+      <c r="Y11" s="34"/>
+      <c r="Z11" s="35"/>
+      <c r="AA11" s="38"/>
+      <c r="AB11" s="27"/>
+      <c r="AC11" s="27"/>
+      <c r="AD11" s="27"/>
+      <c r="AE11" s="28"/>
     </row>
     <row r="12" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="32">
+      <c r="B12" s="83">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="74"/>
-      <c r="E12" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F12" s="41"/>
+      <c r="C12" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D12" s="103"/>
+      <c r="E12" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="32"/>
       <c r="G12" s="3"/>
-      <c r="H12" s="108"/>
-      <c r="I12" s="109"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="36"/>
-      <c r="O12" s="36"/>
-      <c r="P12" s="37"/>
-      <c r="Q12" s="49"/>
-      <c r="R12" s="36"/>
-      <c r="S12" s="36"/>
-      <c r="T12" s="36"/>
-      <c r="U12" s="37"/>
-      <c r="V12" s="49"/>
-      <c r="W12" s="36"/>
-      <c r="X12" s="36"/>
-      <c r="Y12" s="36"/>
-      <c r="Z12" s="37"/>
-      <c r="AA12" s="49"/>
-      <c r="AB12" s="36"/>
-      <c r="AC12" s="36"/>
-      <c r="AD12" s="36"/>
-      <c r="AE12" s="37"/>
+      <c r="H12" s="123"/>
+      <c r="I12" s="122"/>
+      <c r="J12" s="107"/>
+      <c r="K12" s="107"/>
+      <c r="L12" s="108"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="107"/>
+      <c r="P12" s="108"/>
+      <c r="Q12" s="107"/>
+      <c r="R12" s="107"/>
+      <c r="S12" s="107"/>
+      <c r="T12" s="107"/>
+      <c r="U12" s="107"/>
+      <c r="V12" s="109"/>
+      <c r="W12" s="107"/>
+      <c r="X12" s="34"/>
+      <c r="Y12" s="34"/>
+      <c r="Z12" s="35"/>
+      <c r="AB12" s="27"/>
+      <c r="AC12" s="27"/>
+      <c r="AD12" s="27"/>
+      <c r="AE12" s="28"/>
     </row>
     <row r="13" spans="2:31" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="32">
+      <c r="B13" s="83">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="7" t="s">
+      <c r="C13" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="74"/>
-      <c r="E13" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F13" s="41"/>
+      <c r="D13" s="90"/>
+      <c r="E13" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="F13" s="32"/>
       <c r="G13" s="3"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="49"/>
-      <c r="N13" s="52"/>
-      <c r="O13" s="52"/>
-      <c r="P13" s="96"/>
-      <c r="Q13" s="98"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="37"/>
-      <c r="V13" s="107"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="43"/>
-      <c r="Y13" s="43"/>
-      <c r="Z13" s="44"/>
-      <c r="AA13" s="107"/>
-      <c r="AB13" s="43"/>
-      <c r="AC13" s="43"/>
-      <c r="AD13" s="43"/>
-      <c r="AE13" s="44"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="32"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="38"/>
+      <c r="N13" s="41"/>
+      <c r="O13" s="41"/>
+      <c r="P13" s="58"/>
+      <c r="Q13" s="38"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="28"/>
+      <c r="V13" s="63"/>
+      <c r="W13" s="34"/>
+      <c r="X13" s="34"/>
+      <c r="Y13" s="34"/>
+      <c r="Z13" s="35"/>
+      <c r="AA13" s="38"/>
+      <c r="AB13" s="27"/>
+      <c r="AC13" s="27"/>
+      <c r="AD13" s="27"/>
+      <c r="AE13" s="28"/>
     </row>
     <row r="14" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B14" s="32">
+      <c r="B14" s="83">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" s="73"/>
-      <c r="E14" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F14" s="41"/>
+      <c r="C14" s="86" t="s">
+        <v>52</v>
+      </c>
+      <c r="D14" s="88"/>
+      <c r="E14" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="32"/>
       <c r="G14" s="3"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="37"/>
-      <c r="M14" s="49"/>
-      <c r="N14" s="36"/>
-      <c r="O14" s="90"/>
-      <c r="P14" s="91"/>
-      <c r="Q14" s="56"/>
-      <c r="R14" s="43"/>
-      <c r="S14" s="36"/>
-      <c r="T14" s="36"/>
-      <c r="U14" s="37"/>
-      <c r="V14" s="56"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="43"/>
-      <c r="Y14" s="43"/>
-      <c r="Z14" s="44"/>
-      <c r="AA14" s="56"/>
-      <c r="AB14" s="43"/>
-      <c r="AC14" s="43"/>
-      <c r="AD14" s="43"/>
-      <c r="AE14" s="44"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="38"/>
+      <c r="N14" s="110"/>
+      <c r="O14" s="110"/>
+      <c r="P14" s="111"/>
+      <c r="Q14" s="124"/>
+      <c r="R14" s="34"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="28"/>
+      <c r="V14" s="43"/>
+      <c r="W14" s="34"/>
+      <c r="X14" s="34"/>
+      <c r="Y14" s="34"/>
+      <c r="Z14" s="35"/>
+      <c r="AA14" s="34"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
+      <c r="AD14" s="34"/>
+      <c r="AE14" s="35"/>
     </row>
     <row r="15" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B15" s="32">
+      <c r="B15" s="83">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="D15" s="73"/>
-      <c r="E15" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F15" s="41"/>
+      <c r="C15" s="86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D15" s="88"/>
+      <c r="E15" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="32"/>
       <c r="G15" s="3"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="36"/>
-      <c r="K15" s="36"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="49"/>
-      <c r="N15" s="36"/>
-      <c r="O15" s="36"/>
-      <c r="P15" s="37"/>
-      <c r="Q15" s="92"/>
-      <c r="R15" s="36"/>
-      <c r="S15" s="43"/>
-      <c r="T15" s="43"/>
-      <c r="U15" s="37"/>
-      <c r="V15" s="56"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="43"/>
-      <c r="Y15" s="43"/>
-      <c r="Z15" s="44"/>
-      <c r="AA15" s="56"/>
-      <c r="AB15" s="43"/>
-      <c r="AC15" s="43"/>
-      <c r="AD15" s="43"/>
-      <c r="AE15" s="44"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="61"/>
+      <c r="J15" s="61"/>
+      <c r="K15" s="61"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="38"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="111"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+      <c r="S15" s="110"/>
+      <c r="T15" s="110"/>
+      <c r="U15" s="111"/>
+      <c r="V15" s="132"/>
+      <c r="W15" s="34"/>
+      <c r="X15" s="34"/>
+      <c r="Y15" s="34"/>
+      <c r="Z15" s="35"/>
+      <c r="AA15" s="34"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
+      <c r="AD15" s="34"/>
+      <c r="AE15" s="35"/>
     </row>
     <row r="16" spans="2:31" x14ac:dyDescent="0.25">
-      <c r="B16" s="32">
+      <c r="B16" s="83">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="D16" s="20"/>
-      <c r="E16" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="41"/>
+      <c r="C16" s="86" t="s">
+        <v>21</v>
+      </c>
+      <c r="D16" s="95"/>
+      <c r="E16" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="32"/>
       <c r="G16" s="3"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="37"/>
-      <c r="M16" s="49"/>
-      <c r="N16" s="51"/>
-      <c r="O16" s="57"/>
-      <c r="P16" s="53"/>
-      <c r="Q16" s="50"/>
-      <c r="R16" s="57"/>
-      <c r="S16" s="51"/>
-      <c r="T16" s="43"/>
-      <c r="U16" s="37"/>
-      <c r="V16" s="100"/>
-      <c r="W16" s="51"/>
-      <c r="X16" s="51"/>
-      <c r="Y16" s="43"/>
-      <c r="Z16" s="44"/>
-      <c r="AA16" s="100"/>
-      <c r="AB16" s="51"/>
-      <c r="AC16" s="51"/>
-      <c r="AD16" s="43"/>
-      <c r="AE16" s="44"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="32"/>
+      <c r="J16" s="27"/>
+      <c r="L16" s="113"/>
+      <c r="N16" s="40"/>
+      <c r="O16" s="44"/>
+      <c r="P16" s="42"/>
+      <c r="Q16" s="39"/>
+      <c r="R16" s="44"/>
+      <c r="S16" s="44"/>
+      <c r="T16" s="44"/>
+      <c r="U16" s="44"/>
+      <c r="V16" s="39"/>
+      <c r="W16" s="44"/>
+      <c r="X16" s="40"/>
+      <c r="Y16" s="40"/>
+      <c r="Z16" s="129"/>
+      <c r="AA16" s="59"/>
+      <c r="AB16" s="40"/>
+      <c r="AC16" s="40"/>
+      <c r="AD16" s="34"/>
+      <c r="AE16" s="35"/>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="32">
+      <c r="B17" s="83">
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C17" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="D17" s="20"/>
-      <c r="E17" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="41"/>
+      <c r="C17" s="91" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" s="94"/>
+      <c r="E17" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" s="32"/>
       <c r="G17" s="3"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="45"/>
-      <c r="M17" s="49"/>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="45"/>
-      <c r="Q17" s="38"/>
-      <c r="R17" s="41"/>
-      <c r="S17" s="58"/>
-      <c r="T17" s="41"/>
-      <c r="U17" s="59"/>
-      <c r="V17" s="101"/>
-      <c r="W17" s="102"/>
-      <c r="X17" s="103"/>
-      <c r="Y17" s="102"/>
-      <c r="Z17" s="59"/>
-      <c r="AA17" s="101"/>
-      <c r="AB17" s="102"/>
-      <c r="AC17" s="103"/>
-      <c r="AD17" s="102"/>
-      <c r="AE17" s="59"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="32"/>
+      <c r="K17" s="32"/>
+      <c r="L17" s="36"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="32"/>
+      <c r="O17" s="32"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="61"/>
+      <c r="S17" s="62"/>
+      <c r="T17" s="61"/>
+      <c r="U17" s="45"/>
+      <c r="V17" s="60"/>
+      <c r="W17" s="125"/>
+      <c r="X17" s="125"/>
+      <c r="Y17" s="125"/>
+      <c r="Z17" s="126"/>
+      <c r="AA17" s="60"/>
+      <c r="AB17" s="61"/>
+      <c r="AC17" s="62"/>
+      <c r="AD17" s="61"/>
+      <c r="AE17" s="45"/>
       <c r="AF17" s="3"/>
       <c r="AG17" s="3"/>
       <c r="AH17" s="3"/>
@@ -2419,43 +2965,43 @@
     </row>
     <row r="18" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
-      <c r="B18" s="32">
+      <c r="B18" s="83">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C18" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="83"/>
-      <c r="E18" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F18" s="41"/>
+      <c r="C18" s="91" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" s="93"/>
+      <c r="E18" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="F18" s="32"/>
       <c r="G18" s="3"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="45"/>
-      <c r="M18" s="49"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="45"/>
-      <c r="Q18" s="38"/>
-      <c r="R18" s="99"/>
-      <c r="S18" s="99"/>
-      <c r="T18" s="41"/>
+      <c r="H18" s="29"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="36"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="32"/>
+      <c r="O18" s="32"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="61"/>
+      <c r="S18" s="61"/>
+      <c r="T18" s="61"/>
       <c r="U18" s="45"/>
-      <c r="V18" s="101"/>
-      <c r="W18" s="102"/>
-      <c r="X18" s="102"/>
-      <c r="Y18" s="102"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="101"/>
-      <c r="AB18" s="102"/>
-      <c r="AC18" s="102"/>
-      <c r="AD18" s="102"/>
-      <c r="AE18" s="59"/>
+      <c r="V18" s="60"/>
+      <c r="W18" s="127"/>
+      <c r="X18" s="127"/>
+      <c r="Y18" s="127"/>
+      <c r="Z18" s="128"/>
+      <c r="AA18" s="60"/>
+      <c r="AB18" s="61"/>
+      <c r="AC18" s="61"/>
+      <c r="AD18" s="61"/>
+      <c r="AE18" s="45"/>
       <c r="AF18" s="3"/>
       <c r="AG18" s="3"/>
       <c r="AH18" s="3"/>
@@ -2467,45 +3013,45 @@
       <c r="AN18" s="3"/>
       <c r="AO18" s="3"/>
     </row>
-    <row r="19" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
-      <c r="B19" s="32">
+      <c r="B19" s="96">
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C19" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="D19" s="86"/>
-      <c r="E19" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="F19" s="41"/>
+      <c r="C19" s="97" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="98"/>
+      <c r="E19" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="32"/>
       <c r="G19" s="3"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="45"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="41"/>
-      <c r="O19" s="41"/>
-      <c r="P19" s="45"/>
-      <c r="Q19" s="38"/>
-      <c r="R19" s="93"/>
-      <c r="S19" s="93"/>
-      <c r="T19" s="43"/>
-      <c r="U19" s="37"/>
-      <c r="V19" s="101"/>
-      <c r="W19" s="102"/>
-      <c r="X19" s="102"/>
-      <c r="Y19" s="43"/>
-      <c r="Z19" s="44"/>
-      <c r="AA19" s="101"/>
-      <c r="AB19" s="102"/>
-      <c r="AC19" s="102"/>
-      <c r="AD19" s="43"/>
-      <c r="AE19" s="44"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="32"/>
+      <c r="K19" s="32"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="32"/>
+      <c r="O19" s="32"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="61"/>
+      <c r="S19" s="61"/>
+      <c r="T19" s="34"/>
+      <c r="U19" s="35"/>
+      <c r="V19" s="60"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="30"/>
+      <c r="Y19" s="30"/>
+      <c r="Z19" s="117"/>
+      <c r="AA19" s="60"/>
+      <c r="AB19" s="61"/>
+      <c r="AC19" s="61"/>
+      <c r="AD19" s="34"/>
+      <c r="AE19" s="35"/>
       <c r="AF19" s="3"/>
       <c r="AG19" s="3"/>
       <c r="AH19" s="3"/>
@@ -2519,43 +3065,43 @@
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="32">
+      <c r="B20" s="83">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F20" s="41"/>
+      <c r="C20" s="91" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="92"/>
+      <c r="E20" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F20" s="32"/>
       <c r="G20" s="3"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="45"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="41"/>
-      <c r="O20" s="41"/>
-      <c r="P20" s="45"/>
-      <c r="Q20" s="38"/>
-      <c r="R20" s="41"/>
-      <c r="S20" s="41"/>
-      <c r="T20" s="39"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="32"/>
+      <c r="J20" s="32"/>
+      <c r="K20" s="32"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="32"/>
+      <c r="O20" s="32"/>
+      <c r="P20" s="36"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="61"/>
+      <c r="S20" s="61"/>
+      <c r="T20" s="61"/>
       <c r="U20" s="45"/>
-      <c r="V20" s="101"/>
-      <c r="W20" s="102"/>
-      <c r="X20" s="102"/>
-      <c r="Y20" s="102"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="101"/>
-      <c r="AB20" s="102"/>
-      <c r="AC20" s="102"/>
-      <c r="AD20" s="102"/>
-      <c r="AE20" s="59"/>
+      <c r="V20" s="60"/>
+      <c r="W20" s="133"/>
+      <c r="X20" s="32"/>
+      <c r="Y20" s="32"/>
+      <c r="Z20" s="36"/>
+      <c r="AA20" s="60"/>
+      <c r="AB20" s="61"/>
+      <c r="AC20" s="61"/>
+      <c r="AD20" s="61"/>
+      <c r="AE20" s="45"/>
       <c r="AF20" s="3"/>
       <c r="AG20" s="3"/>
       <c r="AH20" s="3"/>
@@ -2567,44 +3113,44 @@
       <c r="AN20" s="3"/>
       <c r="AO20" s="3"/>
     </row>
-    <row r="21" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="33">
-        <f t="shared" si="0"/>
+      <c r="B21" s="83">
+        <f>B20+1</f>
         <v>16</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="41"/>
-      <c r="H21" s="46"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="48"/>
-      <c r="M21" s="46"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="54"/>
-      <c r="P21" s="55"/>
-      <c r="Q21" s="60"/>
+      <c r="C21" s="91" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" s="92"/>
+      <c r="E21" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="F21" s="32"/>
+      <c r="H21" s="38"/>
+      <c r="I21" s="27"/>
+      <c r="J21" s="27"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="27"/>
+      <c r="N21" s="27"/>
+      <c r="O21" s="115"/>
+      <c r="P21" s="116"/>
+      <c r="Q21" s="32"/>
       <c r="R21" s="61"/>
       <c r="S21" s="61"/>
       <c r="T21" s="61"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="104"/>
-      <c r="W21" s="105"/>
-      <c r="X21" s="105"/>
-      <c r="Y21" s="105"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="104"/>
-      <c r="AB21" s="105"/>
-      <c r="AC21" s="105"/>
-      <c r="AD21" s="105"/>
-      <c r="AE21" s="106"/>
+      <c r="U21" s="45"/>
+      <c r="V21" s="61"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="119"/>
+      <c r="Y21" s="134"/>
+      <c r="Z21" s="135"/>
+      <c r="AA21" s="61"/>
+      <c r="AB21" s="61"/>
+      <c r="AC21" s="61"/>
+      <c r="AD21" s="61"/>
+      <c r="AE21" s="45"/>
       <c r="AF21" s="3"/>
       <c r="AG21" s="3"/>
       <c r="AH21" s="3"/>
@@ -2616,29 +3162,43 @@
       <c r="AN21" s="3"/>
       <c r="AO21" s="3"/>
     </row>
-    <row r="22" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="O22" s="2"/>
-      <c r="P22" s="2"/>
-      <c r="Q22" s="3"/>
-      <c r="R22" s="3"/>
-      <c r="S22" s="3"/>
-      <c r="T22" s="3"/>
-      <c r="U22" s="3"/>
-      <c r="V22" s="3"/>
-      <c r="W22" s="3"/>
-      <c r="X22" s="3"/>
-      <c r="Y22" s="3"/>
-      <c r="Z22" s="3"/>
-      <c r="AA22" s="3"/>
-      <c r="AB22" s="3"/>
-      <c r="AC22" s="3"/>
-      <c r="AD22" s="3"/>
-      <c r="AE22" s="3"/>
+      <c r="B22" s="96">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="C22" s="97" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" s="99"/>
+      <c r="E22" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="H22" s="38"/>
+      <c r="I22" s="27"/>
+      <c r="J22" s="27"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="27"/>
+      <c r="N22" s="27"/>
+      <c r="O22" s="115"/>
+      <c r="P22" s="116"/>
+      <c r="Q22" s="32"/>
+      <c r="R22" s="32"/>
+      <c r="S22" s="32"/>
+      <c r="T22" s="32"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="32"/>
+      <c r="W22" s="32"/>
+      <c r="X22" s="32"/>
+      <c r="Y22" s="32"/>
+      <c r="Z22" s="36"/>
+      <c r="AA22" s="127"/>
+      <c r="AB22" s="127"/>
+      <c r="AC22" s="32"/>
+      <c r="AD22" s="32"/>
+      <c r="AE22" s="36"/>
       <c r="AF22" s="3"/>
       <c r="AG22" s="3"/>
       <c r="AH22" s="3"/>
@@ -2655,29 +3215,43 @@
       <c r="AS22" s="3"/>
       <c r="AT22" s="3"/>
     </row>
-    <row r="23" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
-      <c r="B23" s="3"/>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="3"/>
-      <c r="R23" s="3"/>
-      <c r="S23" s="3"/>
-      <c r="T23" s="3"/>
-      <c r="U23" s="3"/>
-      <c r="V23" s="3"/>
-      <c r="W23" s="3"/>
-      <c r="X23" s="3"/>
-      <c r="Y23" s="3"/>
-      <c r="Z23" s="3"/>
-      <c r="AA23" s="3"/>
-      <c r="AB23" s="3"/>
-      <c r="AC23" s="3"/>
-      <c r="AD23" s="3"/>
-      <c r="AE23" s="3"/>
+      <c r="B23" s="96">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="C23" s="97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D23" s="100"/>
+      <c r="E23" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="H23" s="38"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="27"/>
+      <c r="N23" s="27"/>
+      <c r="O23" s="115"/>
+      <c r="P23" s="116"/>
+      <c r="Q23" s="32"/>
+      <c r="R23" s="32"/>
+      <c r="S23" s="32"/>
+      <c r="T23" s="32"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="32"/>
+      <c r="W23" s="32"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="32"/>
+      <c r="Z23" s="36"/>
+      <c r="AA23" s="125"/>
+      <c r="AB23" s="125"/>
+      <c r="AC23" s="125"/>
+      <c r="AD23" s="61"/>
+      <c r="AE23" s="45"/>
       <c r="AF23" s="3"/>
       <c r="AG23" s="3"/>
       <c r="AH23" s="3"/>
@@ -2694,32 +3268,44 @@
       <c r="AS23" s="3"/>
       <c r="AT23" s="3"/>
     </row>
-    <row r="24" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
-      <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="K24" t="s">
+      <c r="B24" s="96">
+        <v>20</v>
+      </c>
+      <c r="C24" s="97" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="114"/>
+      <c r="E24" s="101" t="s">
+        <v>64</v>
+      </c>
+      <c r="H24" s="38"/>
+      <c r="I24" s="27"/>
+      <c r="J24" s="27"/>
+      <c r="K24" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="3"/>
-      <c r="R24" s="3"/>
-      <c r="S24" s="3"/>
-      <c r="T24" s="3"/>
-      <c r="U24" s="3"/>
-      <c r="V24" s="3"/>
-      <c r="W24" s="3"/>
-      <c r="X24" s="3"/>
-      <c r="Y24" s="3"/>
-      <c r="Z24" s="3"/>
-      <c r="AA24" s="3"/>
-      <c r="AB24" s="3"/>
-      <c r="AC24" s="3"/>
-      <c r="AD24" s="3"/>
-      <c r="AE24" s="3"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="27"/>
+      <c r="N24" s="27"/>
+      <c r="O24" s="115"/>
+      <c r="P24" s="116"/>
+      <c r="Q24" s="32"/>
+      <c r="R24" s="32"/>
+      <c r="S24" s="32"/>
+      <c r="T24" s="32"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="32"/>
+      <c r="W24" s="32"/>
+      <c r="X24" s="32"/>
+      <c r="Y24" s="32"/>
+      <c r="Z24" s="36"/>
+      <c r="AA24" s="61"/>
+      <c r="AB24" s="61"/>
+      <c r="AC24" s="127"/>
+      <c r="AD24" s="127"/>
+      <c r="AE24" s="45"/>
       <c r="AF24" s="3"/>
       <c r="AG24" s="3"/>
       <c r="AH24" s="3"/>
@@ -2736,37 +3322,43 @@
       <c r="AS24" s="3"/>
       <c r="AT24" s="3"/>
     </row>
-    <row r="25" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
-      <c r="R25" s="3"/>
-      <c r="S25" s="3"/>
-      <c r="T25" s="3"/>
-      <c r="U25" s="3"/>
-      <c r="V25" s="3"/>
-      <c r="W25" s="3"/>
-      <c r="X25" s="3"/>
-      <c r="Y25" s="3"/>
-      <c r="Z25" s="3"/>
-      <c r="AA25" s="3"/>
-      <c r="AB25" s="3"/>
-      <c r="AC25" s="3"/>
-      <c r="AD25" s="3"/>
-      <c r="AE25" s="3"/>
+      <c r="B25" s="96">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="C25" s="97" t="s">
+        <v>58</v>
+      </c>
+      <c r="D25" s="53"/>
+      <c r="E25" s="101" t="s">
+        <v>39</v>
+      </c>
+      <c r="H25" s="38"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="27"/>
+      <c r="N25" s="27"/>
+      <c r="O25" s="115"/>
+      <c r="P25" s="116"/>
+      <c r="Q25" s="32"/>
+      <c r="R25" s="32"/>
+      <c r="S25" s="32"/>
+      <c r="T25" s="32"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="32"/>
+      <c r="W25" s="32"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="32"/>
+      <c r="Z25" s="36"/>
+      <c r="AA25" s="122"/>
+      <c r="AB25" s="122"/>
+      <c r="AC25" s="138"/>
+      <c r="AD25" s="138"/>
+      <c r="AE25" s="137"/>
       <c r="AF25" s="3"/>
       <c r="AG25" s="3"/>
       <c r="AH25" s="3"/>
@@ -2783,38 +3375,45 @@
       <c r="AS25" s="3"/>
       <c r="AT25" s="3"/>
     </row>
-    <row r="26" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:46" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
-      <c r="B26" s="3"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
+      <c r="B26" s="96">
+        <f>B24+1</f>
+        <v>21</v>
+      </c>
+      <c r="C26" s="97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D26" s="98"/>
+      <c r="E26" s="136" t="s">
+        <v>65</v>
+      </c>
       <c r="F26" s="3"/>
       <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
-      <c r="R26" s="3"/>
-      <c r="S26" s="3"/>
-      <c r="T26" s="3"/>
-      <c r="U26" s="3"/>
-      <c r="V26" s="3"/>
-      <c r="W26" s="3"/>
-      <c r="X26" s="3"/>
-      <c r="Y26" s="3"/>
-      <c r="Z26" s="3"/>
-      <c r="AA26" s="3"/>
-      <c r="AB26" s="3"/>
-      <c r="AC26" s="3"/>
-      <c r="AD26" s="3"/>
-      <c r="AE26" s="3"/>
+      <c r="H26" s="37"/>
+      <c r="I26" s="46"/>
+      <c r="J26" s="46"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="118"/>
+      <c r="M26" s="46"/>
+      <c r="N26" s="46"/>
+      <c r="O26" s="46"/>
+      <c r="P26" s="118"/>
+      <c r="Q26" s="46"/>
+      <c r="R26" s="46"/>
+      <c r="S26" s="46"/>
+      <c r="T26" s="46"/>
+      <c r="U26" s="118"/>
+      <c r="V26" s="46"/>
+      <c r="W26" s="46"/>
+      <c r="X26" s="46"/>
+      <c r="Y26" s="46"/>
+      <c r="Z26" s="118"/>
+      <c r="AA26" s="46"/>
+      <c r="AB26" s="46"/>
+      <c r="AC26" s="46"/>
+      <c r="AD26" s="46"/>
+      <c r="AE26" s="139"/>
       <c r="AF26" s="3"/>
       <c r="AG26" s="3"/>
       <c r="AH26" s="3"/>
@@ -2833,6 +3432,10 @@
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" s="3"/>
+      <c r="B27" s="3"/>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="3"/>
       <c r="G27" s="3"/>
       <c r="H27" s="3"/>
@@ -2921,10 +3524,10 @@
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
+      <c r="B29" s="3"/>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
       <c r="L29" s="3"/>
@@ -2963,12 +3566,12 @@
       <c r="AS29" s="3"/>
       <c r="AT29" s="3"/>
     </row>
-    <row r="30" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
-      <c r="F30" s="3"/>
-      <c r="G30" s="3"/>
-      <c r="H30" s="3"/>
-      <c r="I30" s="3"/>
+      <c r="B30" s="3"/>
+      <c r="C30" s="3"/>
+      <c r="D30" s="3"/>
+      <c r="E30" s="3"/>
       <c r="J30" s="3"/>
       <c r="K30" s="3"/>
       <c r="L30" s="3"/>
@@ -3007,12 +3610,26 @@
       <c r="AS30" s="3"/>
       <c r="AT30" s="3"/>
     </row>
-    <row r="31" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
-      <c r="B31" s="3"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
+      <c r="B31" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E31" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="F31" s="66" t="s">
+        <v>15</v>
+      </c>
+      <c r="G31" s="67"/>
+      <c r="H31" s="67"/>
+      <c r="I31" s="68"/>
       <c r="J31" s="3"/>
       <c r="K31" s="3"/>
       <c r="L31" s="3"/>
@@ -3053,10 +3670,20 @@
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" s="3"/>
-      <c r="B32" s="3"/>
-      <c r="C32" s="3"/>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
+      <c r="B32" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E32" s="10"/>
+      <c r="F32" s="72"/>
+      <c r="G32" s="72"/>
+      <c r="H32" s="72"/>
+      <c r="I32" s="73"/>
       <c r="J32" s="3"/>
       <c r="K32" s="3"/>
       <c r="L32" s="3"/>
@@ -3095,12 +3722,22 @@
       <c r="AS32" s="3"/>
       <c r="AT32" s="3"/>
     </row>
-    <row r="33" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A33" s="3"/>
-      <c r="B33" s="3"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
+      <c r="B33" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D33" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33" s="54"/>
+      <c r="F33" s="74"/>
+      <c r="G33" s="74"/>
+      <c r="H33" s="74"/>
+      <c r="I33" s="75"/>
       <c r="J33" s="3"/>
       <c r="K33" s="3"/>
       <c r="L33" s="3"/>
@@ -3139,26 +3776,22 @@
       <c r="AS33" s="3"/>
       <c r="AT33" s="3"/>
     </row>
-    <row r="34" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" s="3"/>
-      <c r="B34" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F34" s="113" t="s">
-        <v>15</v>
-      </c>
-      <c r="G34" s="114"/>
-      <c r="H34" s="114"/>
-      <c r="I34" s="115"/>
+      <c r="B34" s="51" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="50" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" s="52" t="s">
+        <v>39</v>
+      </c>
+      <c r="E34" s="53"/>
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="I34" s="77"/>
       <c r="J34" s="3"/>
       <c r="K34" s="3"/>
       <c r="L34" s="3"/>
@@ -3197,22 +3830,22 @@
       <c r="AS34" s="3"/>
       <c r="AT34" s="3"/>
     </row>
-    <row r="35" spans="1:46" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
-      <c r="B35" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D35" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="75"/>
-      <c r="G35" s="75"/>
-      <c r="H35" s="75"/>
-      <c r="I35" s="76"/>
+      <c r="B35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D35" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="5"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
+      <c r="H35" s="78"/>
+      <c r="I35" s="79"/>
       <c r="J35" s="3"/>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3253,20 +3886,10 @@
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A36" s="3"/>
-      <c r="B36" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C36" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="D36" s="84" t="s">
-        <v>42</v>
-      </c>
-      <c r="E36" s="73"/>
-      <c r="F36" s="77"/>
-      <c r="G36" s="77"/>
-      <c r="H36" s="77"/>
-      <c r="I36" s="78"/>
+      <c r="B36" s="3"/>
+      <c r="C36" s="3"/>
+      <c r="D36" s="3"/>
+      <c r="E36" s="3"/>
       <c r="J36" s="3"/>
       <c r="K36" s="3"/>
       <c r="L36" s="3"/>
@@ -3307,20 +3930,10 @@
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A37" s="3"/>
-      <c r="B37" s="70" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="69" t="s">
-        <v>13</v>
-      </c>
-      <c r="D37" s="71" t="s">
-        <v>40</v>
-      </c>
-      <c r="E37" s="72"/>
-      <c r="F37" s="79"/>
-      <c r="G37" s="79"/>
-      <c r="H37" s="79"/>
-      <c r="I37" s="80"/>
+      <c r="B37" s="3"/>
+      <c r="C37" s="3"/>
+      <c r="D37" s="3"/>
+      <c r="E37" s="3"/>
       <c r="J37" s="3"/>
       <c r="K37" s="3"/>
       <c r="L37" s="3"/>
@@ -3359,22 +3972,12 @@
       <c r="AS37" s="3"/>
       <c r="AT37" s="3"/>
     </row>
-    <row r="38" spans="1:46" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" s="3"/>
-      <c r="B38" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="D38" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="E38" s="6"/>
-      <c r="F38" s="81"/>
-      <c r="G38" s="81"/>
-      <c r="H38" s="81"/>
-      <c r="I38" s="82"/>
+      <c r="B38" s="3"/>
+      <c r="C38" s="3"/>
+      <c r="D38" s="3"/>
+      <c r="E38" s="3"/>
       <c r="J38" s="3"/>
       <c r="K38" s="3"/>
       <c r="L38" s="3"/>
@@ -3463,6 +4066,10 @@
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
+      <c r="F40" s="3"/>
+      <c r="G40" s="3"/>
+      <c r="H40" s="3"/>
+      <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -3507,6 +4114,10 @@
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
+      <c r="F41" s="3"/>
+      <c r="G41" s="3"/>
+      <c r="H41" s="3"/>
+      <c r="I41" s="3"/>
       <c r="J41" s="3"/>
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
@@ -3551,6 +4162,10 @@
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
+      <c r="F42" s="3"/>
+      <c r="G42" s="3"/>
+      <c r="H42" s="3"/>
+      <c r="I42" s="3"/>
       <c r="J42" s="3"/>
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
@@ -4359,10 +4974,6 @@
     </row>
     <row r="59" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-      <c r="C59" s="3"/>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3"/>
       <c r="F59" s="3"/>
       <c r="G59" s="3"/>
       <c r="H59" s="3"/>
@@ -4407,10 +5018,6 @@
     </row>
     <row r="60" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A60" s="3"/>
-      <c r="B60" s="3"/>
-      <c r="C60" s="3"/>
-      <c r="D60" s="3"/>
-      <c r="E60" s="3"/>
       <c r="F60" s="3"/>
       <c r="G60" s="3"/>
       <c r="H60" s="3"/>
@@ -4455,10 +5062,6 @@
     </row>
     <row r="61" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A61" s="3"/>
-      <c r="B61" s="3"/>
-      <c r="C61" s="3"/>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3"/>
       <c r="F61" s="3"/>
       <c r="G61" s="3"/>
       <c r="H61" s="3"/>
@@ -4545,148 +5148,18 @@
       <c r="AS62" s="3"/>
       <c r="AT62" s="3"/>
     </row>
-    <row r="63" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-      <c r="F63" s="3"/>
-      <c r="G63" s="3"/>
-      <c r="H63" s="3"/>
-      <c r="I63" s="3"/>
-      <c r="J63" s="3"/>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="3"/>
-      <c r="N63" s="3"/>
-      <c r="O63" s="3"/>
-      <c r="P63" s="3"/>
-      <c r="Q63" s="3"/>
-      <c r="R63" s="3"/>
-      <c r="S63" s="3"/>
-      <c r="T63" s="3"/>
-      <c r="U63" s="3"/>
-      <c r="V63" s="3"/>
-      <c r="W63" s="3"/>
-      <c r="X63" s="3"/>
-      <c r="Y63" s="3"/>
-      <c r="Z63" s="3"/>
-      <c r="AA63" s="3"/>
-      <c r="AB63" s="3"/>
-      <c r="AC63" s="3"/>
-      <c r="AD63" s="3"/>
-      <c r="AE63" s="3"/>
-      <c r="AF63" s="3"/>
-      <c r="AG63" s="3"/>
-      <c r="AH63" s="3"/>
-      <c r="AI63" s="3"/>
-      <c r="AJ63" s="3"/>
-      <c r="AK63" s="3"/>
-      <c r="AL63" s="3"/>
-      <c r="AM63" s="3"/>
-      <c r="AN63" s="3"/>
-      <c r="AO63" s="3"/>
-      <c r="AP63" s="3"/>
-      <c r="AQ63" s="3"/>
-      <c r="AR63" s="3"/>
-      <c r="AS63" s="3"/>
-      <c r="AT63" s="3"/>
-    </row>
-    <row r="64" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-      <c r="F64" s="3"/>
-      <c r="G64" s="3"/>
-      <c r="H64" s="3"/>
-      <c r="I64" s="3"/>
-      <c r="J64" s="3"/>
-      <c r="K64" s="3"/>
-      <c r="L64" s="3"/>
-      <c r="M64" s="3"/>
-      <c r="N64" s="3"/>
-      <c r="O64" s="3"/>
-      <c r="P64" s="3"/>
-      <c r="Q64" s="3"/>
-      <c r="R64" s="3"/>
-      <c r="S64" s="3"/>
-      <c r="T64" s="3"/>
-      <c r="U64" s="3"/>
-      <c r="V64" s="3"/>
-      <c r="W64" s="3"/>
-      <c r="X64" s="3"/>
-      <c r="Y64" s="3"/>
-      <c r="Z64" s="3"/>
-      <c r="AA64" s="3"/>
-      <c r="AB64" s="3"/>
-      <c r="AC64" s="3"/>
-      <c r="AD64" s="3"/>
-      <c r="AE64" s="3"/>
-      <c r="AF64" s="3"/>
-      <c r="AG64" s="3"/>
-      <c r="AH64" s="3"/>
-      <c r="AI64" s="3"/>
-      <c r="AJ64" s="3"/>
-      <c r="AK64" s="3"/>
-      <c r="AL64" s="3"/>
-      <c r="AM64" s="3"/>
-      <c r="AN64" s="3"/>
-      <c r="AO64" s="3"/>
-      <c r="AP64" s="3"/>
-      <c r="AQ64" s="3"/>
-      <c r="AR64" s="3"/>
-      <c r="AS64" s="3"/>
-      <c r="AT64" s="3"/>
-    </row>
-    <row r="65" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="F65" s="3"/>
-      <c r="G65" s="3"/>
-      <c r="H65" s="3"/>
-      <c r="I65" s="3"/>
-      <c r="J65" s="3"/>
-      <c r="K65" s="3"/>
-      <c r="L65" s="3"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-      <c r="R65" s="3"/>
-      <c r="S65" s="3"/>
-      <c r="T65" s="3"/>
-      <c r="U65" s="3"/>
-      <c r="V65" s="3"/>
-      <c r="W65" s="3"/>
-      <c r="X65" s="3"/>
-      <c r="Y65" s="3"/>
-      <c r="Z65" s="3"/>
-      <c r="AA65" s="3"/>
-      <c r="AB65" s="3"/>
-      <c r="AC65" s="3"/>
-      <c r="AD65" s="3"/>
-      <c r="AE65" s="3"/>
-      <c r="AF65" s="3"/>
-      <c r="AG65" s="3"/>
-      <c r="AH65" s="3"/>
-      <c r="AI65" s="3"/>
-      <c r="AJ65" s="3"/>
-      <c r="AK65" s="3"/>
-      <c r="AL65" s="3"/>
-      <c r="AM65" s="3"/>
-      <c r="AN65" s="3"/>
-      <c r="AO65" s="3"/>
-      <c r="AP65" s="3"/>
-      <c r="AQ65" s="3"/>
-      <c r="AR65" s="3"/>
-      <c r="AS65" s="3"/>
-      <c r="AT65" s="3"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="10">
+    <mergeCell ref="Q11:S11"/>
+    <mergeCell ref="F32:I35"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="N11:P11"/>
     <mergeCell ref="V3:Z3"/>
     <mergeCell ref="AA3:AE3"/>
     <mergeCell ref="H3:L3"/>
     <mergeCell ref="M3:P3"/>
     <mergeCell ref="Q3:U3"/>
-    <mergeCell ref="F35:I38"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="I9:L9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -4706,26 +5179,26 @@
   <sheetData>
     <row r="3" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="26" t="s">
+      <c r="B4" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="23">
+      <c r="C4" s="18">
         <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="24">
+      <c r="C5" s="19">
         <v>0.33329999999999999</v>
       </c>
     </row>
     <row r="6" spans="2:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="25">
+      <c r="B6" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="20">
         <v>0.33329999999999999</v>
       </c>
     </row>
